--- a/Data/Tags/vars_14.xlsx
+++ b/Data/Tags/vars_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Clusterwise_DD_Italy/Data/Tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0B205-1677-634F-ADEF-3A23E2CA5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A0F94-B4F1-604A-9AF8-3CB9785A7F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{200904F7-7B5F-494F-AD2A-58BB9852C9E8}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16300" xr2:uid="{200904F7-7B5F-494F-AD2A-58BB9852C9E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="281">
   <si>
     <t>Progressive code</t>
   </si>
@@ -871,6 +871,15 @@
   </si>
   <si>
     <t xml:space="preserve">Groups of economic sectors </t>
+  </si>
+  <si>
+    <t>Ricavi_K</t>
+  </si>
+  <si>
+    <t>Ricavi in mile</t>
+  </si>
+  <si>
+    <t>Revenue in thousands</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC4926B-47F5-8D47-B1E1-44082445B6D4}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3103,6 +3112,26 @@
       </c>
       <c r="F88" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Tags/vars_14.xlsx
+++ b/Data/Tags/vars_14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Clusterwise_DD_Italy/Data/Tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A0F94-B4F1-604A-9AF8-3CB9785A7F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C047D-A6EB-1D41-9282-9FFD192FE3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16300" xr2:uid="{200904F7-7B5F-494F-AD2A-58BB9852C9E8}"/>
+    <workbookView xWindow="-5120" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{200904F7-7B5F-494F-AD2A-58BB9852C9E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -920,10 +920,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,13 +993,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -1341,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC4926B-47F5-8D47-B1E1-44082445B6D4}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="144" workbookViewId="0">
+      <selection activeCell="G52" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1352,7 +1351,7 @@
     <col min="5" max="5" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
@@ -1371,9 +1370,8 @@
       <c r="F1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1410,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1473,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1552,9 +1550,8 @@
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1574,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1614,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1654,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
